--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4762" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +835,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +928,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1066,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1159,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1285,10 +1297,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1332,28 +1344,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1378,28 +1390,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1458,10 +1470,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1505,28 +1517,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1551,28 +1563,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1660,10 +1672,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1707,28 +1719,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1753,28 +1765,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1862,10 +1874,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1909,28 +1921,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1955,28 +1967,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2093,10 +2105,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2140,28 +2152,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2186,28 +2198,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2266,10 +2278,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2313,28 +2325,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2359,28 +2371,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2439,10 +2451,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2486,28 +2498,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2532,28 +2544,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2612,10 +2624,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2659,28 +2671,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2705,28 +2717,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2785,10 +2797,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2832,28 +2844,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2878,28 +2890,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3045,10 +3057,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3092,28 +3104,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3138,28 +3150,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3247,10 +3259,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3294,28 +3306,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3340,28 +3352,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3449,10 +3461,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3496,28 +3508,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3542,28 +3554,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3709,10 +3721,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3802,28 +3814,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3882,10 +3894,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3929,28 +3941,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3975,28 +3987,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4055,10 +4067,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4102,28 +4114,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4148,28 +4160,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4286,10 +4298,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4333,28 +4345,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4379,28 +4391,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4575,10 +4587,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4622,28 +4634,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4668,28 +4680,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4748,10 +4760,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4795,28 +4807,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4841,28 +4853,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4979,10 +4991,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5026,28 +5038,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5072,28 +5084,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5152,10 +5164,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5199,28 +5211,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5245,28 +5257,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5325,10 +5337,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5372,28 +5384,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5418,28 +5430,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5556,10 +5568,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5603,28 +5615,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5649,28 +5661,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5787,10 +5799,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5834,28 +5846,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5880,28 +5892,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5989,10 +6001,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6036,28 +6048,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6082,28 +6094,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6162,10 +6174,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6209,28 +6221,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6255,28 +6267,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6393,10 +6405,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6440,28 +6452,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6486,28 +6498,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6566,10 +6578,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6613,28 +6625,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6659,28 +6671,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6739,10 +6751,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6786,28 +6798,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6832,28 +6844,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6912,10 +6924,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6959,28 +6971,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7005,28 +7017,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7085,10 +7097,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7132,28 +7144,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7178,28 +7190,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7374,10 +7386,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7421,28 +7433,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7467,28 +7479,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7547,10 +7559,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7594,28 +7606,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7640,28 +7652,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7720,10 +7732,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7767,28 +7779,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7813,28 +7825,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7893,10 +7905,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="2" t="s">
+      <c r="J269" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7940,28 +7952,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="2">
+      <c r="A271" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="C271" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7986,28 +7998,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="2">
+      <c r="C273" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="2">
+      <c r="D273" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="2">
+      <c r="I273" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8066,10 +8078,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8113,28 +8125,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8159,28 +8171,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8239,10 +8251,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8286,28 +8298,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8332,28 +8344,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8441,10 +8453,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8488,28 +8500,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8534,28 +8546,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8614,10 +8626,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8661,28 +8673,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8707,28 +8719,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8845,10 +8857,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8892,28 +8904,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8938,28 +8950,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9018,10 +9030,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9065,28 +9077,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9111,28 +9123,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9191,10 +9203,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9238,28 +9250,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9284,28 +9296,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9364,10 +9376,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9411,28 +9423,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9457,28 +9469,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9537,10 +9549,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="2" t="s">
+      <c r="J326" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9584,28 +9596,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="2">
+      <c r="A328" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="2">
+      <c r="C328" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9630,28 +9642,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="2">
+      <c r="C330" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="2">
+      <c r="D330" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="2">
+      <c r="I330" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9710,10 +9722,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="2" t="s">
+      <c r="J332" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9757,28 +9769,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="2">
+      <c r="A334" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="2">
+      <c r="C334" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9803,28 +9815,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="2">
+      <c r="C336" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="2">
+      <c r="D336" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="2">
+      <c r="I336" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9883,10 +9895,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9930,28 +9942,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9976,28 +9988,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10056,10 +10068,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10103,28 +10115,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10149,28 +10161,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10258,10 +10270,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="2" t="s">
+      <c r="J351" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10305,28 +10317,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="2">
+      <c r="A353" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="2">
+      <c r="C353" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10351,28 +10363,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="2">
+      <c r="C355" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="2">
+      <c r="D355" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="2">
+      <c r="I355" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10460,10 +10472,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="2" t="s">
+      <c r="J358" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10507,28 +10519,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="2">
+      <c r="A360" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="2">
+      <c r="C360" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10553,28 +10565,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="2">
+      <c r="C362" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="2">
+      <c r="D362" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="2">
+      <c r="I362" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10633,10 +10645,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="2" t="s">
+      <c r="J364" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10680,28 +10692,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="2">
+      <c r="A366" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="2">
+      <c r="B366" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="2">
+      <c r="C366" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="2">
+      <c r="E366" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="2">
+      <c r="F366" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="2">
+      <c r="G366" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="2">
+      <c r="H366" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10726,28 +10738,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="2">
+      <c r="B368" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="2">
+      <c r="C368" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="2">
+      <c r="D368" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="2">
+      <c r="E368" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="2">
+      <c r="F368" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="2">
+      <c r="G368" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="2">
+      <c r="H368" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="2">
+      <c r="I368" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10835,10 +10847,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="2" t="s">
+      <c r="J371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4762" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12666" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -344,10 +392,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -391,28 +439,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="4">
+      <c r="C9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="4">
+      <c r="E9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="4">
+      <c r="F9" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -437,28 +485,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -633,10 +681,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="J17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -680,28 +728,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="4">
+      <c r="A19" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="4">
+      <c r="C19" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -726,28 +774,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="4">
+      <c r="D21" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="4">
+      <c r="I21" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -835,10 +883,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="J24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -882,28 +930,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="4">
+      <c r="A26" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="4">
+      <c r="C26" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -928,28 +976,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="4">
+      <c r="C28" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="4">
+      <c r="D28" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="4">
+      <c r="I28" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1066,10 +1114,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="J32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1113,28 +1161,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="4">
+      <c r="A34" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="4">
+      <c r="C34" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1159,28 +1207,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="4">
+      <c r="I36" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1297,10 +1345,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="4" t="s">
+      <c r="J40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1344,28 +1392,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="4">
+      <c r="A42" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="4">
+      <c r="C42" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1390,28 +1438,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="4">
+      <c r="I44" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1470,10 +1518,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="4" t="s">
+      <c r="J46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1517,28 +1565,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="4">
+      <c r="A48" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="4">
+      <c r="C48" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="4">
+      <c r="G48" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="4">
+      <c r="H48" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1563,28 +1611,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="4">
+      <c r="C50" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="4">
+      <c r="D50" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="4">
+      <c r="I50" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1672,10 +1720,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="4" t="s">
+      <c r="J53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1719,28 +1767,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="4">
+      <c r="A55" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="4">
+      <c r="B55" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="4">
+      <c r="C55" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="4">
+      <c r="G55" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="4">
+      <c r="H55" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1765,28 +1813,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="4">
+      <c r="B57" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="4">
+      <c r="C57" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="4">
+      <c r="D57" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="4">
+      <c r="E57" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="4">
+      <c r="F57" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="4">
+      <c r="G57" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="4">
+      <c r="H57" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="4">
+      <c r="I57" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1874,10 +1922,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="4" t="s">
+      <c r="J60" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1921,28 +1969,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="4">
+      <c r="A62" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="4">
+      <c r="C62" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="4">
+      <c r="E62" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="4">
+      <c r="F62" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="4">
+      <c r="G62" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="4">
+      <c r="H62" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1967,28 +2015,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="4">
+      <c r="B64" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C64" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="4">
+      <c r="D64" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="4">
+      <c r="E64" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="4">
+      <c r="F64" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="4">
+      <c r="G64" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="4">
+      <c r="H64" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="4">
+      <c r="I64" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2105,10 +2153,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="4" t="s">
+      <c r="J68" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2152,28 +2200,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="4">
+      <c r="A70" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="4">
+      <c r="C70" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="4">
+      <c r="E70" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="4">
+      <c r="F70" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="4">
+      <c r="G70" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="4">
+      <c r="H70" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2198,28 +2246,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="4">
+      <c r="B72" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="4">
+      <c r="C72" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="4">
+      <c r="D72" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="4">
+      <c r="E72" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="4">
+      <c r="F72" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="4">
+      <c r="G72" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="4">
+      <c r="H72" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="4">
+      <c r="I72" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2278,10 +2326,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="4" t="s">
+      <c r="J74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2325,28 +2373,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="4">
+      <c r="A76" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="4">
+      <c r="C76" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2371,28 +2419,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="4">
+      <c r="I78" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2451,10 +2499,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="4" t="s">
+      <c r="J80" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2498,28 +2546,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="4">
+      <c r="A82" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="4">
+      <c r="B82" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="4">
+      <c r="C82" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="4">
+      <c r="E82" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="4">
+      <c r="F82" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="4">
+      <c r="G82" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="4">
+      <c r="H82" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2544,28 +2592,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="4">
+      <c r="C84" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="4">
+      <c r="D84" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="4">
+      <c r="I84" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2624,10 +2672,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="4" t="s">
+      <c r="J86" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2671,28 +2719,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="4">
+      <c r="A88" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="4">
+      <c r="C88" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2717,28 +2765,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="4">
+      <c r="C90" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="4">
+      <c r="D90" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="4">
+      <c r="I90" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2797,10 +2845,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="4" t="s">
+      <c r="J92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2844,28 +2892,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="4">
+      <c r="A94" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="B94" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="4">
+      <c r="C94" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="4">
+      <c r="E94" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="4">
+      <c r="F94" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="4">
+      <c r="G94" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="4">
+      <c r="H94" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2890,28 +2938,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="4">
+      <c r="C96" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="4">
+      <c r="D96" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="4">
+      <c r="I96" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3057,10 +3105,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="4" t="s">
+      <c r="J101" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3104,28 +3152,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="4">
+      <c r="A103" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="4">
+      <c r="C103" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3150,28 +3198,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="4">
+      <c r="B105" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="4">
+      <c r="C105" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="4">
+      <c r="D105" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="4">
+      <c r="E105" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="4">
+      <c r="F105" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="4">
+      <c r="G105" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="4">
+      <c r="H105" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="4">
+      <c r="I105" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3259,10 +3307,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="4" t="s">
+      <c r="J108" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3306,28 +3354,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="4">
+      <c r="A110" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="4">
+      <c r="C110" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3352,28 +3400,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="4">
+      <c r="C112" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="4">
+      <c r="D112" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="4">
+      <c r="G112" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="4">
+      <c r="H112" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="4">
+      <c r="I112" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3461,10 +3509,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="4" t="s">
+      <c r="J115" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3508,28 +3556,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="4">
+      <c r="A117" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="4">
+      <c r="C117" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3554,28 +3602,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="4">
+      <c r="C119" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="4">
+      <c r="D119" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="4">
+      <c r="I119" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3721,10 +3769,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="4" t="s">
+      <c r="J124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3768,28 +3816,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="4">
+      <c r="A126" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="4">
+      <c r="C126" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3814,28 +3862,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="4">
+      <c r="C128" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="4">
+      <c r="D128" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="4">
+      <c r="I128" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3894,10 +3942,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="4" t="s">
+      <c r="J130" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3941,28 +3989,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="4">
+      <c r="A132" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="4">
+      <c r="C132" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3987,28 +4035,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="4">
+      <c r="D134" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="4">
+      <c r="I134" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4067,10 +4115,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="4" t="s">
+      <c r="J136" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4114,28 +4162,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="4">
+      <c r="A138" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="4">
+      <c r="C138" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4160,28 +4208,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="4">
+      <c r="D140" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="4">
+      <c r="I140" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4298,10 +4346,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="4" t="s">
+      <c r="J144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4345,28 +4393,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="4">
+      <c r="C146" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4391,28 +4439,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4587,10 +4635,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="4" t="s">
+      <c r="J154" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4634,28 +4682,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="4">
+      <c r="A156" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="4">
+      <c r="C156" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4680,28 +4728,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="4">
+      <c r="C158" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="4">
+      <c r="D158" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="4">
+      <c r="I158" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4760,10 +4808,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="4" t="s">
+      <c r="J160" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4807,28 +4855,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="4">
+      <c r="A162" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="4">
+      <c r="C162" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4853,28 +4901,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="4">
+      <c r="C164" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="4">
+      <c r="D164" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="4">
+      <c r="I164" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4991,10 +5039,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="4" t="s">
+      <c r="J168" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5038,28 +5086,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="4">
+      <c r="C170" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5084,28 +5132,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5164,10 +5212,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="4" t="s">
+      <c r="J174" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5211,28 +5259,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="4">
+      <c r="A176" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="4">
+      <c r="C176" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5257,28 +5305,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="4">
+      <c r="D178" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="4">
+      <c r="I178" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5337,10 +5385,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="4" t="s">
+      <c r="J180" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5384,28 +5432,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="4">
+      <c r="A182" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="4">
+      <c r="C182" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5430,28 +5478,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="4">
+      <c r="C184" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="4">
+      <c r="D184" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="4">
+      <c r="I184" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5568,10 +5616,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="4" t="s">
+      <c r="J188" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5615,28 +5663,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="4">
+      <c r="A190" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="4">
+      <c r="C190" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5661,28 +5709,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="4">
+      <c r="I192" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5799,10 +5847,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="4" t="s">
+      <c r="J196" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5846,28 +5894,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="4">
+      <c r="A198" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="4">
+      <c r="B198" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="4">
+      <c r="C198" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="4">
+      <c r="E198" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="4">
+      <c r="F198" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="4">
+      <c r="G198" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="4">
+      <c r="H198" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5892,28 +5940,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="4">
+      <c r="B200" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="4">
+      <c r="C200" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="4">
+      <c r="D200" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="4">
+      <c r="E200" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="4">
+      <c r="F200" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="4">
+      <c r="G200" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="4">
+      <c r="H200" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="4">
+      <c r="I200" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6001,10 +6049,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="4" t="s">
+      <c r="J203" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6048,28 +6096,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="4">
+      <c r="A205" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="4">
+      <c r="C205" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6094,28 +6142,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="4">
+      <c r="C207" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="4">
+      <c r="D207" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="4">
+      <c r="G207" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="4">
+      <c r="H207" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="4">
+      <c r="I207" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6174,10 +6222,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="4" t="s">
+      <c r="J209" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6221,28 +6269,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="4">
+      <c r="A211" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="4">
+      <c r="B211" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="4">
+      <c r="C211" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="4">
+      <c r="E211" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="4">
+      <c r="F211" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="4">
+      <c r="G211" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="4">
+      <c r="H211" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6267,28 +6315,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="4">
+      <c r="B213" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="4">
+      <c r="C213" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="4">
+      <c r="D213" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="4">
+      <c r="E213" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="4">
+      <c r="F213" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="4">
+      <c r="G213" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="4">
+      <c r="H213" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="4">
+      <c r="I213" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6405,10 +6453,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="4" t="s">
+      <c r="J217" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6452,28 +6500,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="4">
+      <c r="A219" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="4">
+      <c r="C219" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="4">
+      <c r="E219" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="4">
+      <c r="F219" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="4">
+      <c r="G219" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="4">
+      <c r="H219" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6498,28 +6546,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="4">
+      <c r="C221" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="4">
+      <c r="D221" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="4">
+      <c r="I221" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6578,10 +6626,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="4" t="s">
+      <c r="J223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6625,28 +6673,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="4">
+      <c r="A225" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="4">
+      <c r="C225" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="4">
+      <c r="G225" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="4">
+      <c r="H225" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6671,28 +6719,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="4">
+      <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="4">
+      <c r="D227" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="4">
+      <c r="I227" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6751,10 +6799,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="4" t="s">
+      <c r="J229" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6798,28 +6846,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="4">
+      <c r="A231" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="4">
+      <c r="B231" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="4">
+      <c r="C231" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="4">
+      <c r="E231" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="4">
+      <c r="F231" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="4">
+      <c r="G231" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="4">
+      <c r="H231" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6844,28 +6892,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="4">
+      <c r="C233" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="4">
+      <c r="D233" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="4">
+      <c r="E233" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="4">
+      <c r="F233" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="4">
+      <c r="G233" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="4">
+      <c r="H233" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="4">
+      <c r="I233" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6924,10 +6972,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="4" t="s">
+      <c r="J235" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6971,28 +7019,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="4">
+      <c r="A237" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="4">
+      <c r="C237" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="4">
+      <c r="G237" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="4">
+      <c r="H237" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7017,28 +7065,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="4">
+      <c r="B239" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="4">
+      <c r="C239" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="4">
+      <c r="D239" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="4">
+      <c r="E239" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="4">
+      <c r="F239" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="4">
+      <c r="G239" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="4">
+      <c r="H239" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="4">
+      <c r="I239" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7097,10 +7145,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="4" t="s">
+      <c r="J241" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7144,28 +7192,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="4">
+      <c r="A243" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="4">
+      <c r="B243" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="4">
+      <c r="C243" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="4">
+      <c r="E243" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="4">
+      <c r="F243" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="4">
+      <c r="G243" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="4">
+      <c r="H243" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7190,28 +7238,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="4">
+      <c r="B245" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="4">
+      <c r="C245" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="4">
+      <c r="D245" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="4">
+      <c r="E245" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="4">
+      <c r="F245" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="4">
+      <c r="G245" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="4">
+      <c r="H245" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="4">
+      <c r="I245" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7386,10 +7434,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="4" t="s">
+      <c r="J251" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7433,28 +7481,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="4">
+      <c r="A253" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="4">
+      <c r="B253" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="4">
+      <c r="C253" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="4">
+      <c r="E253" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="4">
+      <c r="F253" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="4">
+      <c r="G253" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="4">
+      <c r="H253" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7479,28 +7527,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="4">
+      <c r="B255" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="4">
+      <c r="C255" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="4">
+      <c r="D255" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="4">
+      <c r="E255" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="4">
+      <c r="F255" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="4">
+      <c r="G255" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="4">
+      <c r="H255" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="4">
+      <c r="I255" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7559,10 +7607,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="4" t="s">
+      <c r="J257" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7606,28 +7654,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="4">
+      <c r="A259" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="4">
+      <c r="B259" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="4">
+      <c r="C259" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="4">
+      <c r="E259" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="4">
+      <c r="F259" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="4">
+      <c r="G259" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="4">
+      <c r="H259" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7652,28 +7700,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="4">
+      <c r="B261" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="4">
+      <c r="C261" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="4">
+      <c r="D261" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="4">
+      <c r="E261" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="4">
+      <c r="F261" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="4">
+      <c r="G261" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="4">
+      <c r="H261" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="4">
+      <c r="I261" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7732,10 +7780,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="4" t="s">
+      <c r="J263" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7779,28 +7827,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="4">
+      <c r="A265" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="4">
+      <c r="B265" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="4">
+      <c r="C265" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="4">
+      <c r="E265" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="4">
+      <c r="F265" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="4">
+      <c r="G265" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="4">
+      <c r="H265" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7825,28 +7873,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="4">
+      <c r="B267" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="4">
+      <c r="C267" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="4">
+      <c r="D267" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="4">
+      <c r="E267" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="4">
+      <c r="F267" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="4">
+      <c r="G267" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="4">
+      <c r="H267" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="4">
+      <c r="I267" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7905,10 +7953,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="4" t="s">
+      <c r="J269" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7952,28 +8000,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="4">
+      <c r="A271" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="4">
+      <c r="B271" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="4">
+      <c r="C271" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="4">
+      <c r="E271" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="4">
+      <c r="F271" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="4">
+      <c r="G271" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="4">
+      <c r="H271" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7998,28 +8046,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="4">
+      <c r="B273" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="4">
+      <c r="C273" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="4">
+      <c r="D273" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="4">
+      <c r="E273" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="4">
+      <c r="F273" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="4">
+      <c r="G273" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="4">
+      <c r="H273" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="4">
+      <c r="I273" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8078,10 +8126,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="4" t="s">
+      <c r="J275" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8125,28 +8173,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="4">
+      <c r="A277" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="4">
+      <c r="B277" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="4">
+      <c r="C277" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="4">
+      <c r="E277" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="4">
+      <c r="F277" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="4">
+      <c r="G277" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="4">
+      <c r="H277" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8171,28 +8219,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="4">
+      <c r="C279" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="4">
+      <c r="D279" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="4">
+      <c r="E279" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="4">
+      <c r="F279" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="4">
+      <c r="G279" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="4">
+      <c r="H279" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="4">
+      <c r="I279" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8251,10 +8299,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="4" t="s">
+      <c r="J281" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8298,28 +8346,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="4">
+      <c r="A283" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="4">
+      <c r="B283" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="4">
+      <c r="C283" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="4">
+      <c r="E283" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="4">
+      <c r="F283" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="4">
+      <c r="G283" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="4">
+      <c r="H283" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8344,28 +8392,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="4">
+      <c r="B285" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="4">
+      <c r="C285" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="4">
+      <c r="D285" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="4">
+      <c r="E285" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="4">
+      <c r="F285" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="4">
+      <c r="G285" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="4">
+      <c r="H285" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="4">
+      <c r="I285" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8453,10 +8501,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="4" t="s">
+      <c r="J288" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8500,28 +8548,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="4">
+      <c r="A290" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="4">
+      <c r="B290" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="4">
+      <c r="C290" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="4">
+      <c r="E290" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="4">
+      <c r="F290" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="4">
+      <c r="G290" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="4">
+      <c r="H290" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8546,28 +8594,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="4">
+      <c r="B292" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="4">
+      <c r="C292" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="4">
+      <c r="D292" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="4">
+      <c r="E292" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="4">
+      <c r="F292" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="4">
+      <c r="G292" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="4">
+      <c r="H292" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="4">
+      <c r="I292" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8626,10 +8674,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="4" t="s">
+      <c r="J294" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8673,28 +8721,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="4">
+      <c r="A296" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="4">
+      <c r="B296" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="4">
+      <c r="C296" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="4">
+      <c r="E296" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="4">
+      <c r="F296" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="4">
+      <c r="G296" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="4">
+      <c r="H296" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8719,28 +8767,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="4">
+      <c r="B298" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="4">
+      <c r="C298" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="4">
+      <c r="D298" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="4">
+      <c r="E298" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="4">
+      <c r="F298" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="4">
+      <c r="G298" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="4">
+      <c r="H298" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="4">
+      <c r="I298" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8857,10 +8905,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="4" t="s">
+      <c r="J302" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8904,28 +8952,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="4">
+      <c r="A304" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="4">
+      <c r="B304" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="4">
+      <c r="C304" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="4">
+      <c r="E304" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="4">
+      <c r="F304" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="4">
+      <c r="G304" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="4">
+      <c r="H304" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8950,28 +8998,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="4">
+      <c r="B306" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="4">
+      <c r="C306" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="4">
+      <c r="D306" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="4">
+      <c r="E306" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="4">
+      <c r="F306" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="4">
+      <c r="G306" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="4">
+      <c r="H306" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="4">
+      <c r="I306" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9030,10 +9078,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="4" t="s">
+      <c r="J308" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9077,28 +9125,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="4">
+      <c r="A310" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="4">
+      <c r="B310" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="4">
+      <c r="C310" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="4">
+      <c r="E310" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="4">
+      <c r="F310" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="4">
+      <c r="G310" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="4">
+      <c r="H310" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9123,28 +9171,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="4">
+      <c r="B312" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="4">
+      <c r="C312" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="4">
+      <c r="D312" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="4">
+      <c r="E312" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="4">
+      <c r="F312" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="4">
+      <c r="G312" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="4">
+      <c r="H312" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="4">
+      <c r="I312" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9203,10 +9251,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="4" t="s">
+      <c r="J314" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9250,28 +9298,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="4">
+      <c r="A316" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="4">
+      <c r="B316" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="4">
+      <c r="C316" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="4">
+      <c r="E316" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="4">
+      <c r="F316" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="4">
+      <c r="G316" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="4">
+      <c r="H316" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9296,28 +9344,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="4">
+      <c r="B318" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="4">
+      <c r="C318" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="4">
+      <c r="D318" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="4">
+      <c r="E318" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="4">
+      <c r="F318" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="4">
+      <c r="G318" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="4">
+      <c r="H318" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="4">
+      <c r="I318" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9376,10 +9424,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="4" t="s">
+      <c r="J320" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9423,28 +9471,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="4">
+      <c r="A322" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="4">
+      <c r="B322" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="4">
+      <c r="C322" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="4">
+      <c r="E322" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="4">
+      <c r="F322" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="4">
+      <c r="G322" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="4">
+      <c r="H322" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9469,28 +9517,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="4">
+      <c r="B324" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="4">
+      <c r="C324" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="4">
+      <c r="D324" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="4">
+      <c r="E324" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="4">
+      <c r="F324" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="4">
+      <c r="G324" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="4">
+      <c r="H324" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="4">
+      <c r="I324" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9549,10 +9597,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="4" t="s">
+      <c r="J326" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9596,28 +9644,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="4">
+      <c r="A328" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="4">
+      <c r="B328" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="4">
+      <c r="C328" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="4">
+      <c r="E328" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="4">
+      <c r="F328" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="4">
+      <c r="G328" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="4">
+      <c r="H328" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9642,28 +9690,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="4">
+      <c r="B330" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="4">
+      <c r="C330" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="4">
+      <c r="D330" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="4">
+      <c r="E330" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="4">
+      <c r="F330" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="4">
+      <c r="G330" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="4">
+      <c r="H330" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="4">
+      <c r="I330" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9722,10 +9770,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="4" t="s">
+      <c r="J332" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9769,28 +9817,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="4">
+      <c r="A334" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="4">
+      <c r="B334" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="4">
+      <c r="C334" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="4">
+      <c r="E334" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="4">
+      <c r="F334" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="4">
+      <c r="G334" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="4">
+      <c r="H334" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9815,28 +9863,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="4">
+      <c r="B336" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="4">
+      <c r="C336" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="4">
+      <c r="D336" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="4">
+      <c r="E336" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="4">
+      <c r="F336" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="4">
+      <c r="G336" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="4">
+      <c r="H336" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="4">
+      <c r="I336" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9895,10 +9943,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="4" t="s">
+      <c r="J338" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9942,28 +9990,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="4">
+      <c r="A340" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="4">
+      <c r="B340" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="4">
+      <c r="C340" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="4">
+      <c r="E340" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="4">
+      <c r="F340" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="4">
+      <c r="G340" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="4">
+      <c r="H340" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9988,28 +10036,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="4">
+      <c r="B342" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="4">
+      <c r="C342" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="4">
+      <c r="D342" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="4">
+      <c r="E342" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="4">
+      <c r="F342" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="4">
+      <c r="G342" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="4">
+      <c r="H342" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="4">
+      <c r="I342" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10068,10 +10116,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="4" t="s">
+      <c r="J344" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10115,28 +10163,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="4">
+      <c r="A346" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="4">
+      <c r="B346" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="4">
+      <c r="C346" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="4">
+      <c r="E346" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="4">
+      <c r="F346" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="4">
+      <c r="G346" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="4">
+      <c r="H346" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10161,28 +10209,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="4">
+      <c r="B348" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="4">
+      <c r="C348" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="4">
+      <c r="D348" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="4">
+      <c r="E348" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="4">
+      <c r="F348" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="4">
+      <c r="G348" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="4">
+      <c r="H348" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="4">
+      <c r="I348" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10270,10 +10318,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="4" t="s">
+      <c r="J351" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10317,28 +10365,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="4">
+      <c r="A353" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="4">
+      <c r="B353" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="4">
+      <c r="C353" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="4">
+      <c r="E353" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="4">
+      <c r="F353" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="4">
+      <c r="G353" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="4">
+      <c r="H353" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10363,28 +10411,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="4">
+      <c r="B355" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="4">
+      <c r="C355" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="4">
+      <c r="D355" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="4">
+      <c r="E355" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="4">
+      <c r="F355" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="4">
+      <c r="G355" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="4">
+      <c r="H355" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="4">
+      <c r="I355" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10472,10 +10520,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="4" t="s">
+      <c r="J358" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10519,28 +10567,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="4">
+      <c r="A360" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="4">
+      <c r="B360" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="4">
+      <c r="C360" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="4">
+      <c r="E360" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="4">
+      <c r="F360" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="4">
+      <c r="G360" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="4">
+      <c r="H360" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10565,28 +10613,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="4">
+      <c r="B362" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="4">
+      <c r="C362" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="4">
+      <c r="D362" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="4">
+      <c r="E362" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="4">
+      <c r="F362" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="4">
+      <c r="G362" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="4">
+      <c r="H362" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="4">
+      <c r="I362" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10645,10 +10693,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="4" t="s">
+      <c r="J364" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10692,28 +10740,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="4">
+      <c r="A366" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="4">
+      <c r="B366" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="4">
+      <c r="C366" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="4">
+      <c r="E366" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="4">
+      <c r="F366" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="4">
+      <c r="G366" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="4">
+      <c r="H366" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10738,28 +10786,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="4">
+      <c r="B368" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="4">
+      <c r="C368" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="4">
+      <c r="D368" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="4">
+      <c r="E368" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="4">
+      <c r="F368" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="4">
+      <c r="G368" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="4">
+      <c r="H368" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="4">
+      <c r="I368" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10847,10 +10895,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="4" t="s">
+      <c r="J371" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12666" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15630" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -392,10 +410,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -439,28 +457,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="12">
+      <c r="C9" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -485,28 +503,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="12">
+      <c r="I11" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -681,10 +699,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="J17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -728,28 +746,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="12">
+      <c r="A19" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="12">
+      <c r="C19" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -774,28 +792,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="C21" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="12">
+      <c r="D21" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="12">
+      <c r="I21" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -883,10 +901,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="12" t="s">
+      <c r="J24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -930,28 +948,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="12">
+      <c r="A26" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="12">
+      <c r="C26" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -976,28 +994,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="12">
+      <c r="C28" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D28" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="12">
+      <c r="I28" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1114,10 +1132,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="12" t="s">
+      <c r="J32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1161,28 +1179,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="12">
+      <c r="A34" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="12">
+      <c r="C34" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1207,28 +1225,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="12">
+      <c r="C36" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="12">
+      <c r="I36" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1345,10 +1363,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="12" t="s">
+      <c r="J40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1392,28 +1410,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="12">
+      <c r="A42" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="12">
+      <c r="C42" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1438,28 +1456,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C44" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D44" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="12">
+      <c r="I44" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1518,10 +1536,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="12" t="s">
+      <c r="J46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1565,28 +1583,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="12">
+      <c r="A48" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="12">
+      <c r="C48" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E48" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F48" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1611,28 +1629,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="12">
+      <c r="C50" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="12">
+      <c r="D50" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="12">
+      <c r="I50" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1720,10 +1738,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="12" t="s">
+      <c r="J53" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1767,28 +1785,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="12">
+      <c r="A55" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="12">
+      <c r="B55" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="12">
+      <c r="C55" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="12">
+      <c r="E55" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="12">
+      <c r="F55" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="12">
+      <c r="G55" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="12">
+      <c r="H55" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1813,28 +1831,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="12">
+      <c r="B57" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="12">
+      <c r="C57" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="12">
+      <c r="D57" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="12">
+      <c r="E57" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="12">
+      <c r="F57" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="12">
+      <c r="G57" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="12">
+      <c r="H57" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="12">
+      <c r="I57" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1922,10 +1940,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="12" t="s">
+      <c r="J60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1969,28 +1987,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="12">
+      <c r="A62" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="12">
+      <c r="B62" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="12">
+      <c r="C62" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="12">
+      <c r="E62" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="12">
+      <c r="F62" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="12">
+      <c r="G62" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="12">
+      <c r="H62" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2015,28 +2033,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="12">
+      <c r="B64" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="12">
+      <c r="C64" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="12">
+      <c r="D64" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="12">
+      <c r="E64" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="12">
+      <c r="F64" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="12">
+      <c r="G64" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="12">
+      <c r="H64" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="12">
+      <c r="I64" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2153,10 +2171,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="12" t="s">
+      <c r="J68" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2200,28 +2218,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="12">
+      <c r="A70" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="12">
+      <c r="B70" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="12">
+      <c r="C70" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="12">
+      <c r="E70" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="12">
+      <c r="F70" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="12">
+      <c r="G70" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="12">
+      <c r="H70" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2246,28 +2264,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="12">
+      <c r="B72" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="12">
+      <c r="C72" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="12">
+      <c r="D72" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="12">
+      <c r="E72" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="12">
+      <c r="F72" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="12">
+      <c r="G72" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="12">
+      <c r="H72" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="12">
+      <c r="I72" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2326,10 +2344,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="12" t="s">
+      <c r="J74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2373,28 +2391,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="12">
+      <c r="A76" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="12">
+      <c r="C76" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2419,28 +2437,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="12">
+      <c r="C78" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="12">
+      <c r="D78" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="12">
+      <c r="I78" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2499,10 +2517,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="12" t="s">
+      <c r="J80" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2546,28 +2564,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="12">
+      <c r="A82" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="12">
+      <c r="B82" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="12">
+      <c r="C82" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="12">
+      <c r="E82" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="12">
+      <c r="F82" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="12">
+      <c r="G82" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="12">
+      <c r="H82" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2592,28 +2610,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="12">
+      <c r="C84" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="12">
+      <c r="D84" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="12">
+      <c r="I84" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2672,10 +2690,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="12" t="s">
+      <c r="J86" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2719,28 +2737,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="12">
+      <c r="A88" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="12">
+      <c r="C88" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2765,28 +2783,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="12">
+      <c r="C90" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="12">
+      <c r="D90" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="12">
+      <c r="I90" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2845,10 +2863,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="12" t="s">
+      <c r="J92" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2892,28 +2910,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="12">
+      <c r="A94" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="12">
+      <c r="B94" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="12">
+      <c r="C94" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="12">
+      <c r="E94" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="12">
+      <c r="F94" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="12">
+      <c r="G94" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="12">
+      <c r="H94" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2938,28 +2956,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="12">
+      <c r="C96" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="12">
+      <c r="D96" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="12">
+      <c r="I96" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3105,10 +3123,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="12" t="s">
+      <c r="J101" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3152,28 +3170,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="12">
+      <c r="A103" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="12">
+      <c r="C103" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3198,28 +3216,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="12">
+      <c r="B105" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="12">
+      <c r="C105" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="12">
+      <c r="D105" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="12">
+      <c r="E105" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="12">
+      <c r="F105" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="12">
+      <c r="G105" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="12">
+      <c r="H105" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="12">
+      <c r="I105" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3307,10 +3325,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="12" t="s">
+      <c r="J108" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3354,28 +3372,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="12">
+      <c r="A110" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="12">
+      <c r="C110" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3400,28 +3418,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="12">
+      <c r="C112" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="12">
+      <c r="D112" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="12">
+      <c r="F112" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="12">
+      <c r="I112" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3509,10 +3527,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="12" t="s">
+      <c r="J115" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3556,28 +3574,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="12">
+      <c r="A117" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="12">
+      <c r="C117" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3602,28 +3620,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="12">
+      <c r="C119" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="12">
+      <c r="D119" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="12">
+      <c r="I119" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3769,10 +3787,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="12" t="s">
+      <c r="J124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3816,28 +3834,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="12">
+      <c r="A126" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="12">
+      <c r="C126" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3862,28 +3880,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="12">
+      <c r="C128" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="12">
+      <c r="D128" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="12">
+      <c r="I128" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3942,10 +3960,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="12" t="s">
+      <c r="J130" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3989,28 +4007,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="12">
+      <c r="A132" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="12">
+      <c r="C132" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4035,28 +4053,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="12">
+      <c r="C134" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="12">
+      <c r="D134" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="12">
+      <c r="I134" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4115,10 +4133,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="12" t="s">
+      <c r="J136" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4162,28 +4180,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="12">
+      <c r="A138" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="12">
+      <c r="C138" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4208,28 +4226,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="12">
+      <c r="I140" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4346,10 +4364,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="12" t="s">
+      <c r="J144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4393,28 +4411,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="12">
+      <c r="C146" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4439,28 +4457,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4635,10 +4653,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="12" t="s">
+      <c r="J154" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4682,28 +4700,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="12">
+      <c r="A156" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="12">
+      <c r="C156" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4728,28 +4746,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="12">
+      <c r="C158" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="12">
+      <c r="D158" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="12">
+      <c r="I158" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4808,10 +4826,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="12" t="s">
+      <c r="J160" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4855,28 +4873,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="12">
+      <c r="A162" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="12">
+      <c r="C162" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4901,28 +4919,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="12">
+      <c r="C164" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="12">
+      <c r="D164" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="12">
+      <c r="I164" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5039,10 +5057,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="12" t="s">
+      <c r="J168" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5086,28 +5104,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="12">
+      <c r="C170" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5132,28 +5150,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5212,10 +5230,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="12" t="s">
+      <c r="J174" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5259,28 +5277,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="12">
+      <c r="A176" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="12">
+      <c r="C176" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5305,28 +5323,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="12">
+      <c r="C178" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="12">
+      <c r="D178" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="12">
+      <c r="I178" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5385,10 +5403,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="12" t="s">
+      <c r="J180" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5432,28 +5450,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="12">
+      <c r="A182" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="12">
+      <c r="C182" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5478,28 +5496,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="12">
+      <c r="C184" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="12">
+      <c r="D184" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="12">
+      <c r="I184" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5616,10 +5634,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="12" t="s">
+      <c r="J188" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5663,28 +5681,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="12">
+      <c r="A190" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="12">
+      <c r="C190" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5709,28 +5727,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="12">
+      <c r="D192" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="12">
+      <c r="I192" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5847,10 +5865,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="12" t="s">
+      <c r="J196" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5894,28 +5912,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="12">
+      <c r="A198" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="12">
+      <c r="B198" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="12">
+      <c r="C198" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="12">
+      <c r="E198" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="12">
+      <c r="F198" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="12">
+      <c r="G198" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="12">
+      <c r="H198" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5940,28 +5958,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="12">
+      <c r="B200" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="12">
+      <c r="C200" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="12">
+      <c r="D200" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="12">
+      <c r="E200" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="12">
+      <c r="F200" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="12">
+      <c r="G200" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="12">
+      <c r="H200" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="12">
+      <c r="I200" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6049,10 +6067,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="12" t="s">
+      <c r="J203" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6096,28 +6114,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="12">
+      <c r="A205" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="12">
+      <c r="C205" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6142,28 +6160,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="12">
+      <c r="B207" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="12">
+      <c r="C207" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="12">
+      <c r="D207" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="12">
+      <c r="E207" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="12">
+      <c r="F207" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="12">
+      <c r="G207" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="12">
+      <c r="H207" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="12">
+      <c r="I207" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6222,10 +6240,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="12" t="s">
+      <c r="J209" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6269,28 +6287,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="12">
+      <c r="A211" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="12">
+      <c r="B211" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="12">
+      <c r="C211" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="12">
+      <c r="E211" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="12">
+      <c r="F211" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="12">
+      <c r="G211" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="12">
+      <c r="H211" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6315,28 +6333,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="12">
+      <c r="B213" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="12">
+      <c r="C213" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="12">
+      <c r="D213" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="12">
+      <c r="E213" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="12">
+      <c r="F213" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="12">
+      <c r="G213" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="12">
+      <c r="H213" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="12">
+      <c r="I213" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6453,10 +6471,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="12" t="s">
+      <c r="J217" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6500,28 +6518,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="12">
+      <c r="A219" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="12">
+      <c r="C219" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="12">
+      <c r="E219" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="12">
+      <c r="F219" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="12">
+      <c r="G219" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="12">
+      <c r="H219" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6546,28 +6564,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="12">
+      <c r="C221" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="12">
+      <c r="D221" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="12">
+      <c r="I221" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6626,10 +6644,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="12" t="s">
+      <c r="J223" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6673,28 +6691,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="12">
+      <c r="A225" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="12">
+      <c r="B225" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="12">
+      <c r="C225" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="12">
+      <c r="E225" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="12">
+      <c r="F225" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="12">
+      <c r="G225" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="12">
+      <c r="H225" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6719,28 +6737,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="12">
+      <c r="C227" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="12">
+      <c r="D227" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="12">
+      <c r="I227" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6799,10 +6817,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="12" t="s">
+      <c r="J229" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6846,28 +6864,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="12">
+      <c r="A231" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="12">
+      <c r="B231" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="12">
+      <c r="C231" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="12">
+      <c r="E231" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="12">
+      <c r="F231" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="12">
+      <c r="G231" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="12">
+      <c r="H231" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6892,28 +6910,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="12">
+      <c r="B233" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="12">
+      <c r="C233" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="12">
+      <c r="D233" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="12">
+      <c r="E233" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="12">
+      <c r="F233" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="12">
+      <c r="G233" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="12">
+      <c r="H233" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="12">
+      <c r="I233" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6972,10 +6990,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="12" t="s">
+      <c r="J235" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -7019,28 +7037,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="12">
+      <c r="A237" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="12">
+      <c r="C237" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="12">
+      <c r="E237" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="12">
+      <c r="F237" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="12">
+      <c r="G237" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="12">
+      <c r="H237" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7065,28 +7083,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="12">
+      <c r="C239" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="12">
+      <c r="D239" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="12">
+      <c r="E239" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="12">
+      <c r="F239" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="12">
+      <c r="G239" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="12">
+      <c r="H239" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="12">
+      <c r="I239" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7145,10 +7163,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="12" t="s">
+      <c r="J241" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7192,28 +7210,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="12">
+      <c r="A243" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="12">
+      <c r="B243" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="12">
+      <c r="C243" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="12">
+      <c r="E243" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="12">
+      <c r="F243" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="12">
+      <c r="G243" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="12">
+      <c r="H243" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7238,28 +7256,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="12">
+      <c r="B245" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="12">
+      <c r="C245" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="12">
+      <c r="D245" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="12">
+      <c r="E245" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="12">
+      <c r="F245" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="12">
+      <c r="G245" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="12">
+      <c r="H245" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="12">
+      <c r="I245" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7434,10 +7452,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="12" t="s">
+      <c r="J251" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7481,28 +7499,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="12">
+      <c r="A253" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="12">
+      <c r="B253" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="12">
+      <c r="C253" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="12">
+      <c r="E253" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="12">
+      <c r="F253" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="12">
+      <c r="G253" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="12">
+      <c r="H253" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7527,28 +7545,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="12">
+      <c r="B255" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="12">
+      <c r="C255" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="12">
+      <c r="D255" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="12">
+      <c r="E255" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="12">
+      <c r="F255" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="12">
+      <c r="G255" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="12">
+      <c r="H255" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="12">
+      <c r="I255" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7607,10 +7625,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="12" t="s">
+      <c r="J257" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7654,28 +7672,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="12">
+      <c r="A259" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="12">
+      <c r="B259" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="12">
+      <c r="C259" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="12">
+      <c r="E259" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="12">
+      <c r="F259" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="12">
+      <c r="G259" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="12">
+      <c r="H259" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7700,28 +7718,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="12">
+      <c r="B261" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="12">
+      <c r="C261" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="12">
+      <c r="D261" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="12">
+      <c r="E261" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="12">
+      <c r="F261" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="12">
+      <c r="G261" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="12">
+      <c r="H261" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="12">
+      <c r="I261" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7780,10 +7798,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="12" t="s">
+      <c r="J263" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7827,28 +7845,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="12">
+      <c r="A265" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="12">
+      <c r="B265" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="12">
+      <c r="C265" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="12">
+      <c r="E265" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="12">
+      <c r="F265" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="12">
+      <c r="G265" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="12">
+      <c r="H265" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7873,28 +7891,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="12">
+      <c r="B267" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="12">
+      <c r="C267" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="12">
+      <c r="D267" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="12">
+      <c r="E267" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="12">
+      <c r="F267" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="12">
+      <c r="G267" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="12">
+      <c r="H267" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="12">
+      <c r="I267" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7953,10 +7971,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="12" t="s">
+      <c r="J269" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -8000,28 +8018,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="12">
+      <c r="A271" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="12">
+      <c r="B271" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="12">
+      <c r="C271" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="12">
+      <c r="E271" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="12">
+      <c r="F271" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="12">
+      <c r="G271" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="12">
+      <c r="H271" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8046,28 +8064,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="12">
+      <c r="B273" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="12">
+      <c r="C273" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="12">
+      <c r="D273" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="12">
+      <c r="E273" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="12">
+      <c r="F273" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="12">
+      <c r="G273" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="12">
+      <c r="H273" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="12">
+      <c r="I273" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8126,10 +8144,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="12" t="s">
+      <c r="J275" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8173,28 +8191,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="12">
+      <c r="A277" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="12">
+      <c r="B277" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="12">
+      <c r="C277" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="12">
+      <c r="E277" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="12">
+      <c r="F277" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="12">
+      <c r="G277" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="12">
+      <c r="H277" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8219,28 +8237,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="12">
+      <c r="B279" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="12">
+      <c r="C279" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="12">
+      <c r="D279" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="12">
+      <c r="E279" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="12">
+      <c r="F279" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="12">
+      <c r="G279" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="12">
+      <c r="H279" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="12">
+      <c r="I279" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8299,10 +8317,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="12" t="s">
+      <c r="J281" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8346,28 +8364,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="12">
+      <c r="A283" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="12">
+      <c r="B283" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="12">
+      <c r="C283" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="12">
+      <c r="E283" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="12">
+      <c r="F283" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="12">
+      <c r="G283" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="12">
+      <c r="H283" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8392,28 +8410,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="12">
+      <c r="B285" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="12">
+      <c r="C285" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="12">
+      <c r="D285" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="12">
+      <c r="E285" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="12">
+      <c r="F285" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="12">
+      <c r="G285" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="12">
+      <c r="H285" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="12">
+      <c r="I285" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8501,10 +8519,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="12" t="s">
+      <c r="J288" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8548,28 +8566,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="12">
+      <c r="A290" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="12">
+      <c r="B290" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="12">
+      <c r="C290" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="12">
+      <c r="E290" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="12">
+      <c r="F290" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="12">
+      <c r="G290" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="12">
+      <c r="H290" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8594,28 +8612,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="12">
+      <c r="B292" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="12">
+      <c r="C292" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="12">
+      <c r="D292" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="12">
+      <c r="E292" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="12">
+      <c r="F292" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="12">
+      <c r="G292" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="12">
+      <c r="H292" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="12">
+      <c r="I292" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8674,10 +8692,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="12" t="s">
+      <c r="J294" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8721,28 +8739,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="12">
+      <c r="A296" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="12">
+      <c r="B296" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="12">
+      <c r="C296" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="12">
+      <c r="E296" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="12">
+      <c r="F296" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="12">
+      <c r="G296" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="12">
+      <c r="H296" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8767,28 +8785,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="12">
+      <c r="B298" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="12">
+      <c r="C298" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="12">
+      <c r="D298" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="12">
+      <c r="E298" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="12">
+      <c r="F298" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="12">
+      <c r="G298" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="12">
+      <c r="H298" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="12">
+      <c r="I298" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8905,10 +8923,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="12" t="s">
+      <c r="J302" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8952,28 +8970,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="12">
+      <c r="A304" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="12">
+      <c r="B304" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="12">
+      <c r="C304" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="12">
+      <c r="E304" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="12">
+      <c r="F304" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="12">
+      <c r="G304" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="12">
+      <c r="H304" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8998,28 +9016,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="12">
+      <c r="C306" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="12">
+      <c r="D306" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="12">
+      <c r="E306" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="12">
+      <c r="F306" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="12">
+      <c r="G306" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="12">
+      <c r="H306" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="12">
+      <c r="I306" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9078,10 +9096,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="12" t="s">
+      <c r="J308" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9125,28 +9143,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="12">
+      <c r="A310" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="12">
+      <c r="B310" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="12">
+      <c r="C310" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="12">
+      <c r="E310" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="12">
+      <c r="F310" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="12">
+      <c r="G310" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="12">
+      <c r="H310" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9171,28 +9189,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="12">
+      <c r="B312" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="12">
+      <c r="C312" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="12">
+      <c r="D312" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="12">
+      <c r="E312" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="12">
+      <c r="F312" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="12">
+      <c r="G312" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="12">
+      <c r="H312" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="12">
+      <c r="I312" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9251,10 +9269,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="12" t="s">
+      <c r="J314" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9298,28 +9316,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="12">
+      <c r="A316" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="12">
+      <c r="B316" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="12">
+      <c r="C316" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="12">
+      <c r="E316" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="12">
+      <c r="F316" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="12">
+      <c r="G316" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="12">
+      <c r="H316" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9344,28 +9362,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="12">
+      <c r="B318" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="12">
+      <c r="C318" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="12">
+      <c r="D318" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="12">
+      <c r="E318" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="12">
+      <c r="F318" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="12">
+      <c r="G318" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="12">
+      <c r="H318" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="12">
+      <c r="I318" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9424,10 +9442,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="12" t="s">
+      <c r="J320" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9471,28 +9489,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="12">
+      <c r="A322" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="12">
+      <c r="B322" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="12">
+      <c r="C322" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="12">
+      <c r="E322" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="12">
+      <c r="F322" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="12">
+      <c r="G322" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="12">
+      <c r="H322" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9517,28 +9535,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="12">
+      <c r="B324" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="12">
+      <c r="C324" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="12">
+      <c r="D324" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="12">
+      <c r="E324" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="12">
+      <c r="F324" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="12">
+      <c r="G324" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="12">
+      <c r="H324" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="12">
+      <c r="I324" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9597,10 +9615,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="12" t="s">
+      <c r="J326" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9644,28 +9662,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="12">
+      <c r="A328" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="12">
+      <c r="B328" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="12">
+      <c r="C328" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="12">
+      <c r="E328" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="12">
+      <c r="F328" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="12">
+      <c r="G328" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="12">
+      <c r="H328" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9690,28 +9708,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="12">
+      <c r="B330" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="12">
+      <c r="C330" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="12">
+      <c r="D330" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="12">
+      <c r="E330" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="12">
+      <c r="F330" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="12">
+      <c r="G330" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="12">
+      <c r="H330" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="12">
+      <c r="I330" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9770,10 +9788,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="12" t="s">
+      <c r="J332" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9817,28 +9835,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="12">
+      <c r="A334" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="12">
+      <c r="B334" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="12">
+      <c r="C334" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="12">
+      <c r="E334" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="12">
+      <c r="F334" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="12">
+      <c r="G334" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="12">
+      <c r="H334" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9863,28 +9881,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="12">
+      <c r="B336" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="12">
+      <c r="C336" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="12">
+      <c r="D336" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="12">
+      <c r="E336" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="12">
+      <c r="F336" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="12">
+      <c r="G336" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="12">
+      <c r="H336" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="12">
+      <c r="I336" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9943,10 +9961,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="12" t="s">
+      <c r="J338" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9990,28 +10008,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="12">
+      <c r="A340" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="12">
+      <c r="B340" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="12">
+      <c r="C340" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="12">
+      <c r="E340" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="12">
+      <c r="F340" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="12">
+      <c r="G340" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="12">
+      <c r="H340" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10036,28 +10054,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="12">
+      <c r="B342" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="12">
+      <c r="C342" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="12">
+      <c r="D342" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="12">
+      <c r="E342" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="12">
+      <c r="F342" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="12">
+      <c r="G342" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="12">
+      <c r="H342" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="12">
+      <c r="I342" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10116,10 +10134,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="12" t="s">
+      <c r="J344" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10163,28 +10181,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="12">
+      <c r="A346" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="12">
+      <c r="B346" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="12">
+      <c r="C346" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="12">
+      <c r="E346" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="12">
+      <c r="F346" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="12">
+      <c r="G346" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="12">
+      <c r="H346" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10209,28 +10227,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="12">
+      <c r="B348" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="12">
+      <c r="C348" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="12">
+      <c r="D348" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="12">
+      <c r="E348" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="12">
+      <c r="F348" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="12">
+      <c r="G348" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="12">
+      <c r="H348" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="12">
+      <c r="I348" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10318,10 +10336,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="12" t="s">
+      <c r="J351" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10365,28 +10383,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="12">
+      <c r="A353" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="12">
+      <c r="B353" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="12">
+      <c r="C353" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="12">
+      <c r="E353" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="12">
+      <c r="F353" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="12">
+      <c r="G353" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="12">
+      <c r="H353" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10411,28 +10429,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="12">
+      <c r="B355" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="12">
+      <c r="C355" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="12">
+      <c r="D355" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="12">
+      <c r="E355" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="12">
+      <c r="F355" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="12">
+      <c r="G355" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="12">
+      <c r="H355" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="12">
+      <c r="I355" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10520,10 +10538,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="12" t="s">
+      <c r="J358" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10567,28 +10585,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="12">
+      <c r="A360" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="12">
+      <c r="B360" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="12">
+      <c r="C360" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="12">
+      <c r="E360" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="12">
+      <c r="F360" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="12">
+      <c r="G360" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="12">
+      <c r="H360" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10613,28 +10631,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="12">
+      <c r="B362" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="12">
+      <c r="C362" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="12">
+      <c r="D362" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="12">
+      <c r="E362" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="12">
+      <c r="F362" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="12">
+      <c r="G362" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="12">
+      <c r="H362" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="12">
+      <c r="I362" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10693,10 +10711,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="12" t="s">
+      <c r="J364" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10740,28 +10758,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="12">
+      <c r="A366" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="12">
+      <c r="B366" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="12">
+      <c r="C366" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="12">
+      <c r="E366" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="12">
+      <c r="F366" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="12">
+      <c r="G366" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="12">
+      <c r="H366" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10786,28 +10804,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="12">
+      <c r="B368" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="12">
+      <c r="C368" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="12">
+      <c r="D368" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="12">
+      <c r="E368" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="12">
+      <c r="F368" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="12">
+      <c r="G368" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="12">
+      <c r="H368" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="12">
+      <c r="I368" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10895,10 +10913,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="12" t="s">
+      <c r="J371" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
